--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Apoe-Scarb1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H2">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J2">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.081733852707</v>
+        <v>94.753826</v>
       </c>
       <c r="N2">
-        <v>89.081733852707</v>
+        <v>284.261478</v>
       </c>
       <c r="O2">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="P2">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="Q2">
-        <v>3259.192367517367</v>
+        <v>3511.182457720797</v>
       </c>
       <c r="R2">
-        <v>3259.192367517367</v>
+        <v>31600.64211948717</v>
       </c>
       <c r="S2">
-        <v>0.00705060360568783</v>
+        <v>0.006184703909886435</v>
       </c>
       <c r="T2">
-        <v>0.00705060360568783</v>
+        <v>0.006184703909886435</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H3">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J3">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.07714027931549</v>
+        <v>1.164319333333333</v>
       </c>
       <c r="N3">
-        <v>1.07714027931549</v>
+        <v>3.492958</v>
       </c>
       <c r="O3">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="P3">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="Q3">
-        <v>39.40883529383493</v>
+        <v>43.14482898437444</v>
       </c>
       <c r="R3">
-        <v>39.40883529383493</v>
+        <v>388.30346085937</v>
       </c>
       <c r="S3">
-        <v>8.52530458121815E-05</v>
+        <v>7.599661815474378E-05</v>
       </c>
       <c r="T3">
-        <v>8.52530458121815E-05</v>
+        <v>7.599661815474378E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H4">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J4">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.9196807560628</v>
+        <v>12.01913766666667</v>
       </c>
       <c r="N4">
-        <v>11.9196807560628</v>
+        <v>36.057413</v>
       </c>
       <c r="O4">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="P4">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="Q4">
-        <v>436.0998698974357</v>
+        <v>445.3792222820772</v>
       </c>
       <c r="R4">
-        <v>436.0998698974357</v>
+        <v>4008.413000538695</v>
       </c>
       <c r="S4">
-        <v>0.000943413879396448</v>
+        <v>0.0007845045509876999</v>
       </c>
       <c r="T4">
-        <v>0.000943413879396448</v>
+        <v>0.0007845045509876999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H5">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I5">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J5">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.2123473633109</v>
+        <v>19.26494466666667</v>
       </c>
       <c r="N5">
-        <v>19.2123473633109</v>
+        <v>57.794834</v>
       </c>
       <c r="O5">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="P5">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="Q5">
-        <v>702.9133042260887</v>
+        <v>713.8786750686123</v>
       </c>
       <c r="R5">
-        <v>702.9133042260887</v>
+        <v>6424.90807561751</v>
       </c>
       <c r="S5">
-        <v>0.001520610788935274</v>
+        <v>0.001257447679249165</v>
       </c>
       <c r="T5">
-        <v>0.001520610788935274</v>
+        <v>0.001257447679249165</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.5865394235176</v>
+        <v>37.05583833333333</v>
       </c>
       <c r="H6">
-        <v>36.5865394235176</v>
+        <v>111.167515</v>
       </c>
       <c r="I6">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="J6">
-        <v>0.009720560044395723</v>
+        <v>0.008431126118266585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.52473045210216</v>
+        <v>1.968298333333333</v>
       </c>
       <c r="N6">
-        <v>1.52473045210216</v>
+        <v>5.904895</v>
       </c>
       <c r="O6">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="P6">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="Q6">
-        <v>55.78461079607349</v>
+        <v>72.93694483176944</v>
       </c>
       <c r="R6">
-        <v>55.78461079607349</v>
+        <v>656.4325034859249</v>
       </c>
       <c r="S6">
-        <v>0.0001206787245639903</v>
+        <v>0.0001284733599885415</v>
       </c>
       <c r="T6">
-        <v>0.0001206787245639903</v>
+        <v>0.0001284733599885415</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H7">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J7">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>89.081733852707</v>
+        <v>94.753826</v>
       </c>
       <c r="N7">
-        <v>89.081733852707</v>
+        <v>284.261478</v>
       </c>
       <c r="O7">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="P7">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="Q7">
-        <v>4320.3606392894</v>
+        <v>4822.89037127842</v>
       </c>
       <c r="R7">
-        <v>4320.3606392894</v>
+        <v>43406.01334150579</v>
       </c>
       <c r="S7">
-        <v>0.009346226569758713</v>
+        <v>0.008495186250036561</v>
       </c>
       <c r="T7">
-        <v>0.009346226569758713</v>
+        <v>0.008495186250036561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H8">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I8">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J8">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.07714027931549</v>
+        <v>1.164319333333333</v>
       </c>
       <c r="N8">
-        <v>1.07714027931549</v>
+        <v>3.492958</v>
       </c>
       <c r="O8">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="P8">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="Q8">
-        <v>52.24005264022395</v>
+        <v>59.26287875517177</v>
       </c>
       <c r="R8">
-        <v>52.24005264022395</v>
+        <v>533.3659087965459</v>
       </c>
       <c r="S8">
-        <v>0.0001130107897825771</v>
+        <v>0.0001043874427950283</v>
       </c>
       <c r="T8">
-        <v>0.0001130107897825771</v>
+        <v>0.0001043874427950283</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H9">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I9">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J9">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.9196807560628</v>
+        <v>12.01913766666667</v>
       </c>
       <c r="N9">
-        <v>11.9196807560628</v>
+        <v>36.057413</v>
       </c>
       <c r="O9">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="P9">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="Q9">
-        <v>578.0906740829466</v>
+        <v>611.7640392023478</v>
       </c>
       <c r="R9">
-        <v>578.0906740829466</v>
+        <v>5505.87635282113</v>
       </c>
       <c r="S9">
-        <v>0.001250582270542216</v>
+        <v>0.001077579844038838</v>
       </c>
       <c r="T9">
-        <v>0.001250582270542216</v>
+        <v>0.001077579844038838</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H10">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I10">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J10">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.2123473633109</v>
+        <v>19.26494466666667</v>
       </c>
       <c r="N10">
-        <v>19.2123473633109</v>
+        <v>57.794834</v>
       </c>
       <c r="O10">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="P10">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="Q10">
-        <v>931.7765354011639</v>
+        <v>980.5695459313509</v>
       </c>
       <c r="R10">
-        <v>931.7765354011639</v>
+        <v>8825.125913382159</v>
       </c>
       <c r="S10">
-        <v>0.002015710108329392</v>
+        <v>0.00172720511612884</v>
       </c>
       <c r="T10">
-        <v>0.002015710108329392</v>
+        <v>0.00172720511612884</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>48.4988386781171</v>
+        <v>50.89916233333333</v>
       </c>
       <c r="H11">
-        <v>48.4988386781171</v>
+        <v>152.697487</v>
       </c>
       <c r="I11">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="J11">
-        <v>0.0128855005387873</v>
+        <v>0.01158082710438721</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.52473045210216</v>
+        <v>1.968298333333333</v>
       </c>
       <c r="N11">
-        <v>1.52473045210216</v>
+        <v>5.904895</v>
       </c>
       <c r="O11">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="P11">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="Q11">
-        <v>73.94765622411522</v>
+        <v>100.1847363887628</v>
       </c>
       <c r="R11">
-        <v>73.94765622411522</v>
+        <v>901.6626274988649</v>
       </c>
       <c r="S11">
-        <v>0.0001599708003744067</v>
+        <v>0.0001764684513879493</v>
       </c>
       <c r="T11">
-        <v>0.0001599708003744067</v>
+        <v>0.0001764684513879493</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H12">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I12">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J12">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>89.081733852707</v>
+        <v>94.753826</v>
       </c>
       <c r="N12">
-        <v>89.081733852707</v>
+        <v>284.261478</v>
       </c>
       <c r="O12">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="P12">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="Q12">
-        <v>178586.6118213116</v>
+        <v>190213.2163722517</v>
       </c>
       <c r="R12">
-        <v>178586.6118213116</v>
+        <v>1711918.947350266</v>
       </c>
       <c r="S12">
-        <v>0.3863360204767672</v>
+        <v>0.3350473628685138</v>
       </c>
       <c r="T12">
-        <v>0.3863360204767672</v>
+        <v>0.3350473628685138</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H13">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I13">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J13">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.07714027931549</v>
+        <v>1.164319333333333</v>
       </c>
       <c r="N13">
-        <v>1.07714027931549</v>
+        <v>3.492958</v>
       </c>
       <c r="O13">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="P13">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="Q13">
-        <v>2159.397046057486</v>
+        <v>2337.308524910954</v>
       </c>
       <c r="R13">
-        <v>2159.397046057486</v>
+        <v>21035.77672419859</v>
       </c>
       <c r="S13">
-        <v>0.004671418830868819</v>
+        <v>0.004117006548845419</v>
       </c>
       <c r="T13">
-        <v>0.004671418830868819</v>
+        <v>0.004117006548845419</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H14">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I14">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J14">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.9196807560628</v>
+        <v>12.01913766666667</v>
       </c>
       <c r="N14">
-        <v>11.9196807560628</v>
+        <v>36.057413</v>
       </c>
       <c r="O14">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="P14">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="Q14">
-        <v>23895.98078250987</v>
+        <v>24127.77330593012</v>
       </c>
       <c r="R14">
-        <v>23895.98078250987</v>
+        <v>217149.9597533711</v>
       </c>
       <c r="S14">
-        <v>0.05169412212233079</v>
+        <v>0.04249939605784666</v>
       </c>
       <c r="T14">
-        <v>0.05169412212233079</v>
+        <v>0.04249939605784666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H15">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I15">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J15">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.2123473633109</v>
+        <v>19.26494466666667</v>
       </c>
       <c r="N15">
-        <v>19.2123473633109</v>
+        <v>57.794834</v>
       </c>
       <c r="O15">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="P15">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="Q15">
-        <v>38515.95464476404</v>
+        <v>38673.34167889035</v>
       </c>
       <c r="R15">
-        <v>38515.95464476404</v>
+        <v>348060.0751100131</v>
       </c>
       <c r="S15">
-        <v>0.08332147908831135</v>
+        <v>0.06812040398637313</v>
       </c>
       <c r="T15">
-        <v>0.08332147908831135</v>
+        <v>0.06812040398637313</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2004.75006600789</v>
+        <v>2007.446289</v>
       </c>
       <c r="H16">
-        <v>2004.75006600789</v>
+        <v>6022.338867</v>
       </c>
       <c r="I16">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="J16">
-        <v>0.5326356003516877</v>
+        <v>0.4567440273772037</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.52473045210216</v>
+        <v>1.968298333333333</v>
       </c>
       <c r="N16">
-        <v>1.52473045210216</v>
+        <v>5.904895</v>
       </c>
       <c r="O16">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="P16">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="Q16">
-        <v>3056.703474496045</v>
+        <v>3951.253184894885</v>
       </c>
       <c r="R16">
-        <v>3056.703474496045</v>
+        <v>35561.27866405396</v>
       </c>
       <c r="S16">
-        <v>0.006612559833409555</v>
+        <v>0.006959857915624686</v>
       </c>
       <c r="T16">
-        <v>0.006612559833409555</v>
+        <v>0.006959857915624686</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H17">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I17">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J17">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>89.081733852707</v>
+        <v>94.753826</v>
       </c>
       <c r="N17">
-        <v>89.081733852707</v>
+        <v>284.261478</v>
       </c>
       <c r="O17">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="P17">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="Q17">
-        <v>148606.1583777935</v>
+        <v>217296.4235657372</v>
       </c>
       <c r="R17">
-        <v>148606.1583777935</v>
+        <v>1955667.812091635</v>
       </c>
       <c r="S17">
-        <v>0.3214793721685115</v>
+        <v>0.3827525503484444</v>
       </c>
       <c r="T17">
-        <v>0.3214793721685115</v>
+        <v>0.3827525503484444</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H18">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I18">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J18">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.07714027931549</v>
+        <v>1.164319333333333</v>
       </c>
       <c r="N18">
-        <v>1.07714027931549</v>
+        <v>3.492958</v>
       </c>
       <c r="O18">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="P18">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="Q18">
-        <v>1796.885534443314</v>
+        <v>2670.102492977716</v>
       </c>
       <c r="R18">
-        <v>1796.885534443314</v>
+        <v>24030.92243679945</v>
       </c>
       <c r="S18">
-        <v>0.003887198483409808</v>
+        <v>0.004703199997996216</v>
       </c>
       <c r="T18">
-        <v>0.003887198483409808</v>
+        <v>0.004703199997996216</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H19">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I19">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J19">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.9196807560628</v>
+        <v>12.01913766666667</v>
       </c>
       <c r="N19">
-        <v>11.9196807560628</v>
+        <v>36.057413</v>
       </c>
       <c r="O19">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="P19">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="Q19">
-        <v>19884.41277060279</v>
+        <v>27563.16804886492</v>
       </c>
       <c r="R19">
-        <v>19884.41277060279</v>
+        <v>248068.5124397843</v>
       </c>
       <c r="S19">
-        <v>0.04301590595715277</v>
+        <v>0.04855060517456801</v>
       </c>
       <c r="T19">
-        <v>0.04301590595715277</v>
+        <v>0.04855060517456801</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H20">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I20">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J20">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>19.2123473633109</v>
+        <v>19.26494466666667</v>
       </c>
       <c r="N20">
-        <v>19.2123473633109</v>
+        <v>57.794834</v>
       </c>
       <c r="O20">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="P20">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="Q20">
-        <v>32050.0400205738</v>
+        <v>44179.78410980988</v>
       </c>
       <c r="R20">
-        <v>32050.0400205738</v>
+        <v>397618.0569882889</v>
       </c>
       <c r="S20">
-        <v>0.0693337803511203</v>
+        <v>0.07781961968995667</v>
       </c>
       <c r="T20">
-        <v>0.0693337803511203</v>
+        <v>0.07781961968995667</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1668.20011186028</v>
+        <v>2293.273345666667</v>
       </c>
       <c r="H21">
-        <v>1668.20011186028</v>
+        <v>6879.820037</v>
       </c>
       <c r="I21">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="J21">
-        <v>0.4432187249440179</v>
+        <v>0.5217768014597114</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.52473045210216</v>
+        <v>1.968298333333333</v>
       </c>
       <c r="N21">
-        <v>1.52473045210216</v>
+        <v>5.904895</v>
       </c>
       <c r="O21">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="P21">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="Q21">
-        <v>2543.555510753599</v>
+        <v>4513.846104153457</v>
       </c>
       <c r="R21">
-        <v>2543.555510753599</v>
+        <v>40624.61493738111</v>
       </c>
       <c r="S21">
-        <v>0.005502467983823575</v>
+        <v>0.007950826248746153</v>
       </c>
       <c r="T21">
-        <v>0.005502467983823575</v>
+        <v>0.007950826248746153</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H22">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I22">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J22">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>89.081733852707</v>
+        <v>94.753826</v>
       </c>
       <c r="N22">
-        <v>89.081733852707</v>
+        <v>284.261478</v>
       </c>
       <c r="O22">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="P22">
-        <v>0.7253289495138476</v>
+        <v>0.7335560900324893</v>
       </c>
       <c r="Q22">
-        <v>516.2149680194314</v>
+        <v>611.0298697742953</v>
       </c>
       <c r="R22">
-        <v>516.2149680194314</v>
+        <v>5499.268827968657</v>
       </c>
       <c r="S22">
-        <v>0.001116726693122521</v>
+        <v>0.001076286655608196</v>
       </c>
       <c r="T22">
-        <v>0.001116726693122521</v>
+        <v>0.001076286655608196</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H23">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I23">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J23">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.07714027931549</v>
+        <v>1.164319333333333</v>
       </c>
       <c r="N23">
-        <v>1.07714027931549</v>
+        <v>3.492958</v>
       </c>
       <c r="O23">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="P23">
-        <v>0.008770384157169336</v>
+        <v>0.00901381584010375</v>
       </c>
       <c r="Q23">
-        <v>6.24186250975615</v>
+        <v>7.508233922104221</v>
       </c>
       <c r="R23">
-        <v>6.24186250975615</v>
+        <v>67.57410529893799</v>
       </c>
       <c r="S23">
-        <v>1.350300729595087E-05</v>
+        <v>1.32252323123427E-05</v>
       </c>
       <c r="T23">
-        <v>1.350300729595087E-05</v>
+        <v>1.32252323123427E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H24">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I24">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J24">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.9196807560628</v>
+        <v>12.01913766666667</v>
       </c>
       <c r="N24">
-        <v>11.9196807560628</v>
+        <v>36.057413</v>
       </c>
       <c r="O24">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="P24">
-        <v>0.09705344909014398</v>
+        <v>0.09304860821474603</v>
       </c>
       <c r="Q24">
-        <v>69.07271955962058</v>
+        <v>77.5066552274381</v>
       </c>
       <c r="R24">
-        <v>69.07271955962058</v>
+        <v>697.5598970469429</v>
       </c>
       <c r="S24">
-        <v>0.0001494248607217659</v>
+        <v>0.0001365225873048247</v>
       </c>
       <c r="T24">
-        <v>0.0001494248607217659</v>
+        <v>0.0001365225873048247</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H25">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I25">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J25">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.2123473633109</v>
+        <v>19.26494466666667</v>
       </c>
       <c r="N25">
-        <v>19.2123473633109</v>
+        <v>57.794834</v>
       </c>
       <c r="O25">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="P25">
-        <v>0.1564324259086249</v>
+        <v>0.1491435024942661</v>
       </c>
       <c r="Q25">
-        <v>111.3326026649667</v>
+        <v>124.2319928155971</v>
       </c>
       <c r="R25">
-        <v>111.3326026649667</v>
+        <v>1118.087935340374</v>
       </c>
       <c r="S25">
-        <v>0.0002408455719286542</v>
+        <v>0.0002188260225583253</v>
       </c>
       <c r="T25">
-        <v>0.0002408455719286542</v>
+        <v>0.0002188260225583253</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.79484643701448</v>
+        <v>6.448603666666666</v>
       </c>
       <c r="H26">
-        <v>5.79484643701448</v>
+        <v>19.345811</v>
       </c>
       <c r="I26">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="J26">
-        <v>0.001539614121111543</v>
+        <v>0.00146721794043115</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.52473045210216</v>
+        <v>1.968298333333333</v>
       </c>
       <c r="N26">
-        <v>1.52473045210216</v>
+        <v>5.904895</v>
       </c>
       <c r="O26">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="P26">
-        <v>0.01241479133021418</v>
+        <v>0.01523798341839479</v>
       </c>
       <c r="Q26">
-        <v>8.83557882777168</v>
+        <v>12.69277584942722</v>
       </c>
       <c r="R26">
-        <v>8.83557882777168</v>
+        <v>114.234982644845</v>
       </c>
       <c r="S26">
-        <v>1.911398804265091E-05</v>
+        <v>2.235744264746122E-05</v>
       </c>
       <c r="T26">
-        <v>1.911398804265091E-05</v>
+        <v>2.235744264746122E-05</v>
       </c>
     </row>
   </sheetData>
